--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf1-Cspg4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf1-Cspg4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Fgf1</t>
+  </si>
+  <si>
+    <t>Cspg4</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Fgf1</t>
-  </si>
-  <si>
-    <t>Cspg4</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5178444999999999</v>
+        <v>1.532768</v>
       </c>
       <c r="H2">
-        <v>1.035689</v>
+        <v>3.065536</v>
       </c>
       <c r="I2">
-        <v>0.06275179574417894</v>
+        <v>0.1515990582753684</v>
       </c>
       <c r="J2">
-        <v>0.05758005850800961</v>
+        <v>0.1477447846414316</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.352028</v>
+        <v>7.7589965</v>
       </c>
       <c r="N2">
-        <v>2.704056</v>
+        <v>15.517993</v>
       </c>
       <c r="O2">
-        <v>0.04713951580538032</v>
+        <v>0.1661753104840762</v>
       </c>
       <c r="P2">
-        <v>0.04081250644379757</v>
+        <v>0.1577583562381091</v>
       </c>
       <c r="Q2">
-        <v>0.700140263646</v>
+        <v>11.892741547312</v>
       </c>
       <c r="R2">
-        <v>2.800561054584</v>
+        <v>47.570966189248</v>
       </c>
       <c r="S2">
-        <v>0.002958089267298721</v>
+        <v>0.02519202057800292</v>
       </c>
       <c r="T2">
-        <v>0.002349986508892383</v>
+        <v>0.02330797436778568</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5178444999999999</v>
+        <v>1.532768</v>
       </c>
       <c r="H3">
-        <v>1.035689</v>
+        <v>3.065536</v>
       </c>
       <c r="I3">
-        <v>0.06275179574417894</v>
+        <v>0.1515990582753684</v>
       </c>
       <c r="J3">
-        <v>0.05758005850800961</v>
+        <v>0.1477447846414316</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>11.342881</v>
       </c>
       <c r="O3">
-        <v>0.1318261451631791</v>
+        <v>0.08097725747390697</v>
       </c>
       <c r="P3">
-        <v>0.1711988967328076</v>
+        <v>0.1153135113261411</v>
       </c>
       <c r="Q3">
-        <v>1.957949513334833</v>
+        <v>5.795335008202666</v>
       </c>
       <c r="R3">
-        <v>11.747697080009</v>
+        <v>34.772010049216</v>
       </c>
       <c r="S3">
-        <v>0.008272327335022296</v>
+        <v>0.01227607597476634</v>
       </c>
       <c r="T3">
-        <v>0.009857642490381759</v>
+        <v>0.01703696989712801</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5178444999999999</v>
+        <v>1.532768</v>
       </c>
       <c r="H4">
-        <v>1.035689</v>
+        <v>3.065536</v>
       </c>
       <c r="I4">
-        <v>0.06275179574417894</v>
+        <v>0.1515990582753684</v>
       </c>
       <c r="J4">
-        <v>0.05758005850800961</v>
+        <v>0.1477447846414316</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.8490023333333333</v>
+        <v>0.042209</v>
       </c>
       <c r="N4">
-        <v>2.547007</v>
+        <v>0.126627</v>
       </c>
       <c r="O4">
-        <v>0.0296011317154463</v>
+        <v>0.0009039949534997694</v>
       </c>
       <c r="P4">
-        <v>0.03844215489616246</v>
+        <v>0.001287309987532733</v>
       </c>
       <c r="Q4">
-        <v>0.4396511888038332</v>
+        <v>0.06469660451199999</v>
       </c>
       <c r="R4">
-        <v>2.637907132822999</v>
+        <v>0.3881796270719999</v>
       </c>
       <c r="S4">
-        <v>0.001857524171204223</v>
+        <v>0.0001370447836362505</v>
       </c>
       <c r="T4">
-        <v>0.002213501528095003</v>
+        <v>0.0001901933368747876</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5178444999999999</v>
+        <v>1.532768</v>
       </c>
       <c r="H5">
-        <v>1.035689</v>
+        <v>3.065536</v>
       </c>
       <c r="I5">
-        <v>0.06275179574417894</v>
+        <v>0.1515990582753684</v>
       </c>
       <c r="J5">
-        <v>0.05758005850800961</v>
+        <v>0.1477447846414316</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.436643</v>
+        <v>33.9503155</v>
       </c>
       <c r="N5">
-        <v>36.873286</v>
+        <v>67.900631</v>
       </c>
       <c r="O5">
-        <v>0.6428080070062561</v>
+        <v>0.7271177682893459</v>
       </c>
       <c r="P5">
-        <v>0.5565310860718086</v>
+        <v>0.6902884886009675</v>
       </c>
       <c r="Q5">
-        <v>9.547314176013499</v>
+        <v>52.037957188304</v>
       </c>
       <c r="R5">
-        <v>38.189256704054</v>
+        <v>208.151828753216</v>
       </c>
       <c r="S5">
-        <v>0.04033735675837932</v>
+        <v>0.1102303689279524</v>
       </c>
       <c r="T5">
-        <v>0.03204509249754087</v>
+        <v>0.1019865240888093</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5178444999999999</v>
+        <v>1.532768</v>
       </c>
       <c r="H6">
-        <v>1.035689</v>
+        <v>3.065536</v>
       </c>
       <c r="I6">
-        <v>0.06275179574417894</v>
+        <v>0.1515990582753684</v>
       </c>
       <c r="J6">
-        <v>0.05758005850800961</v>
+        <v>0.1477447846414316</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>3.954666333333333</v>
+        <v>0.106203</v>
       </c>
       <c r="N6">
-        <v>11.863999</v>
+        <v>0.318609</v>
       </c>
       <c r="O6">
-        <v>0.1378825409867045</v>
+        <v>0.00227456172964382</v>
       </c>
       <c r="P6">
-        <v>0.1790641671757936</v>
+        <v>0.003239029178751897</v>
       </c>
       <c r="Q6">
-        <v>2.047902210051833</v>
+        <v>0.162784559904</v>
       </c>
       <c r="R6">
-        <v>12.287413260311</v>
+        <v>0.9767073594239999</v>
       </c>
       <c r="S6">
-        <v>0.00865237704868606</v>
+        <v>0.0003448214162031963</v>
       </c>
       <c r="T6">
-        <v>0.01031052522267021</v>
+        <v>0.0004785496684620122</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.5178444999999999</v>
+        <v>1.532768</v>
       </c>
       <c r="H7">
-        <v>1.035689</v>
+        <v>3.065536</v>
       </c>
       <c r="I7">
-        <v>0.06275179574417894</v>
+        <v>0.1515990582753684</v>
       </c>
       <c r="J7">
-        <v>0.05758005850800961</v>
+        <v>0.1477447846414316</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3081146666666667</v>
+        <v>1.052948</v>
       </c>
       <c r="N7">
-        <v>0.9243440000000001</v>
+        <v>3.158844</v>
       </c>
       <c r="O7">
-        <v>0.01074265932303386</v>
+        <v>0.02255110706952724</v>
       </c>
       <c r="P7">
-        <v>0.01395118867963001</v>
+        <v>0.03211330466849762</v>
       </c>
       <c r="Q7">
-        <v>0.1595554855026667</v>
+        <v>1.613925000064</v>
       </c>
       <c r="R7">
-        <v>0.9573329130159999</v>
+        <v>9.683550000383999</v>
       </c>
       <c r="S7">
-        <v>0.0006741211635883203</v>
+        <v>0.003418726594807333</v>
       </c>
       <c r="T7">
-        <v>0.0008033102604293774</v>
+        <v>0.004744573282371861</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5275216666666667</v>
+        <v>0.5275216666666668</v>
       </c>
       <c r="H8">
         <v>1.582565</v>
       </c>
       <c r="I8">
-        <v>0.06392446357409516</v>
+        <v>0.05217475044267593</v>
       </c>
       <c r="J8">
-        <v>0.08798412003287497</v>
+        <v>0.07627237948145685</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.352028</v>
+        <v>7.7589965</v>
       </c>
       <c r="N8">
-        <v>2.704056</v>
+        <v>15.517993</v>
       </c>
       <c r="O8">
-        <v>0.04713951580538032</v>
+        <v>0.1661753104840762</v>
       </c>
       <c r="P8">
-        <v>0.04081250644379757</v>
+        <v>0.1577583562381091</v>
       </c>
       <c r="Q8">
-        <v>0.7132240639400002</v>
+        <v>4.093038765340834</v>
       </c>
       <c r="R8">
-        <v>4.279344383640001</v>
+        <v>24.55823259204501</v>
       </c>
       <c r="S8">
-        <v>0.003013368261001517</v>
+        <v>0.008670155354240866</v>
       </c>
       <c r="T8">
-        <v>0.003590852465793568</v>
+        <v>0.01203260521336391</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5275216666666667</v>
+        <v>0.5275216666666668</v>
       </c>
       <c r="H9">
         <v>1.582565</v>
       </c>
       <c r="I9">
-        <v>0.06392446357409516</v>
+        <v>0.05217475044267593</v>
       </c>
       <c r="J9">
-        <v>0.08798412003287497</v>
+        <v>0.07627237948145685</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>11.342881</v>
       </c>
       <c r="O9">
-        <v>0.1318261451631791</v>
+        <v>0.08097725747390697</v>
       </c>
       <c r="P9">
-        <v>0.1711988967328076</v>
+        <v>0.1153135113261411</v>
       </c>
       <c r="Q9">
-        <v>1.994538496640555</v>
+        <v>1.994538496640556</v>
       </c>
       <c r="R9">
         <v>17.950846469765</v>
       </c>
       <c r="S9">
-        <v>0.008426915614597023</v>
+        <v>0.004224968200233411</v>
       </c>
       <c r="T9">
-        <v>0.01506278427963511</v>
+        <v>0.008795235895206709</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5275216666666667</v>
+        <v>0.5275216666666668</v>
       </c>
       <c r="H10">
         <v>1.582565</v>
       </c>
       <c r="I10">
-        <v>0.06392446357409516</v>
+        <v>0.05217475044267593</v>
       </c>
       <c r="J10">
-        <v>0.08798412003287497</v>
+        <v>0.07627237948145685</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.8490023333333333</v>
+        <v>0.042209</v>
       </c>
       <c r="N10">
-        <v>2.547007</v>
+        <v>0.126627</v>
       </c>
       <c r="O10">
-        <v>0.0296011317154463</v>
+        <v>0.0009039949534997694</v>
       </c>
       <c r="P10">
-        <v>0.03844215489616246</v>
+        <v>0.001287309987532733</v>
       </c>
       <c r="Q10">
-        <v>0.4478671258838889</v>
+        <v>0.02226616202833333</v>
       </c>
       <c r="R10">
-        <v>4.030804132955</v>
+        <v>0.200395458255</v>
       </c>
       <c r="S10">
-        <v>0.00189223646609604</v>
+        <v>4.71657111002889E-05</v>
       </c>
       <c r="T10">
-        <v>0.00338229917070633</v>
+        <v>9.818619587936608E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5275216666666667</v>
+        <v>0.5275216666666668</v>
       </c>
       <c r="H11">
         <v>1.582565</v>
       </c>
       <c r="I11">
-        <v>0.06392446357409516</v>
+        <v>0.05217475044267593</v>
       </c>
       <c r="J11">
-        <v>0.08798412003287497</v>
+        <v>0.07627237948145685</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>18.436643</v>
+        <v>33.9503155</v>
       </c>
       <c r="N11">
-        <v>36.873286</v>
+        <v>67.900631</v>
       </c>
       <c r="O11">
-        <v>0.6428080070062561</v>
+        <v>0.7271177682893459</v>
       </c>
       <c r="P11">
-        <v>0.5565310860718086</v>
+        <v>0.6902884886009675</v>
       </c>
       <c r="Q11">
-        <v>9.725728643098334</v>
+        <v>17.90952701641917</v>
       </c>
       <c r="R11">
-        <v>58.35437185859</v>
+        <v>107.457162098515</v>
       </c>
       <c r="S11">
-        <v>0.04109115702900813</v>
+        <v>0.03793718810293208</v>
       </c>
       <c r="T11">
-        <v>0.04896589787896827</v>
+        <v>0.05264994555425429</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5275216666666667</v>
+        <v>0.5275216666666668</v>
       </c>
       <c r="H12">
         <v>1.582565</v>
       </c>
       <c r="I12">
-        <v>0.06392446357409516</v>
+        <v>0.05217475044267593</v>
       </c>
       <c r="J12">
-        <v>0.08798412003287497</v>
+        <v>0.07627237948145685</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>3.954666333333333</v>
+        <v>0.106203</v>
       </c>
       <c r="N12">
-        <v>11.863999</v>
+        <v>0.318609</v>
       </c>
       <c r="O12">
-        <v>0.1378825409867045</v>
+        <v>0.00227456172964382</v>
       </c>
       <c r="P12">
-        <v>0.1790641671757936</v>
+        <v>0.003239029178751897</v>
       </c>
       <c r="Q12">
-        <v>2.086172175270556</v>
+        <v>0.05602438356500001</v>
       </c>
       <c r="R12">
-        <v>18.775549577435</v>
+        <v>0.5042194520850001</v>
       </c>
       <c r="S12">
-        <v>0.008814067468808274</v>
+        <v>0.0001186746906106276</v>
       </c>
       <c r="T12">
-        <v>0.01575480317838182</v>
+        <v>0.0002470484626732762</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5275216666666667</v>
+        <v>0.5275216666666668</v>
       </c>
       <c r="H13">
         <v>1.582565</v>
       </c>
       <c r="I13">
-        <v>0.06392446357409516</v>
+        <v>0.05217475044267593</v>
       </c>
       <c r="J13">
-        <v>0.08798412003287497</v>
+        <v>0.07627237948145685</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3081146666666667</v>
+        <v>1.052948</v>
       </c>
       <c r="N13">
-        <v>0.9243440000000001</v>
+        <v>3.158844</v>
       </c>
       <c r="O13">
-        <v>0.01074265932303386</v>
+        <v>0.02255110706952724</v>
       </c>
       <c r="P13">
-        <v>0.01395118867963001</v>
+        <v>0.03211330466849762</v>
       </c>
       <c r="Q13">
-        <v>0.1625371624844445</v>
+        <v>0.5554528838733335</v>
       </c>
       <c r="R13">
-        <v>1.46283446236</v>
+        <v>4.99907595486</v>
       </c>
       <c r="S13">
-        <v>0.0006867187345841917</v>
+        <v>0.001176598383558649</v>
       </c>
       <c r="T13">
-        <v>0.001227483059389853</v>
+        <v>0.00244935816007929</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.252014</v>
+        <v>8.050380000000001</v>
       </c>
       <c r="H14">
-        <v>12.504028</v>
+        <v>16.10076</v>
       </c>
       <c r="I14">
-        <v>0.7576118033845048</v>
+        <v>0.7962261912819557</v>
       </c>
       <c r="J14">
-        <v>0.695172647219185</v>
+        <v>0.7759828358771115</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.352028</v>
+        <v>7.7589965</v>
       </c>
       <c r="N14">
-        <v>2.704056</v>
+        <v>15.517993</v>
       </c>
       <c r="O14">
-        <v>0.04713951580538032</v>
+        <v>0.1661753104840762</v>
       </c>
       <c r="P14">
-        <v>0.04081250644379757</v>
+        <v>0.1577583562381091</v>
       </c>
       <c r="Q14">
-        <v>8.452897984392001</v>
+        <v>62.46287024367</v>
       </c>
       <c r="R14">
-        <v>33.811591937568</v>
+        <v>249.85148097468</v>
       </c>
       <c r="S14">
-        <v>0.03571345357998656</v>
+        <v>0.1323131345518325</v>
       </c>
       <c r="T14">
-        <v>0.0283717381441848</v>
+        <v>0.1224177766569595</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.252014</v>
+        <v>8.050380000000001</v>
       </c>
       <c r="H15">
-        <v>12.504028</v>
+        <v>16.10076</v>
       </c>
       <c r="I15">
-        <v>0.7576118033845048</v>
+        <v>0.7962261912819557</v>
       </c>
       <c r="J15">
-        <v>0.695172647219185</v>
+        <v>0.7759828358771115</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>11.342881</v>
       </c>
       <c r="O15">
-        <v>0.1318261451631791</v>
+        <v>0.08097725747390697</v>
       </c>
       <c r="P15">
-        <v>0.1711988967328076</v>
+        <v>0.1153135113261411</v>
       </c>
       <c r="Q15">
-        <v>23.63861693744467</v>
+        <v>30.43816744826</v>
       </c>
       <c r="R15">
-        <v>141.831701624668</v>
+        <v>182.62900468956</v>
       </c>
       <c r="S15">
-        <v>0.09987304357030363</v>
+        <v>0.06447621329890722</v>
       </c>
       <c r="T15">
-        <v>0.1190127902427498</v>
+        <v>0.08948130553380641</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,14 +1396,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
         <v>2</v>
       </c>
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.252014</v>
+        <v>8.050380000000001</v>
       </c>
       <c r="H16">
-        <v>12.504028</v>
+        <v>16.10076</v>
       </c>
       <c r="I16">
-        <v>0.7576118033845048</v>
+        <v>0.7962261912819557</v>
       </c>
       <c r="J16">
-        <v>0.695172647219185</v>
+        <v>0.7759828358771115</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.8490023333333333</v>
+        <v>0.042209</v>
       </c>
       <c r="N16">
-        <v>2.547007</v>
+        <v>0.126627</v>
       </c>
       <c r="O16">
-        <v>0.0296011317154463</v>
+        <v>0.0009039949534997694</v>
       </c>
       <c r="P16">
-        <v>0.03844215489616246</v>
+        <v>0.001287309987532733</v>
       </c>
       <c r="Q16">
-        <v>5.307974474032666</v>
+        <v>0.33979848942</v>
       </c>
       <c r="R16">
-        <v>31.847846844196</v>
+        <v>2.03879093652</v>
       </c>
       <c r="S16">
-        <v>0.02242616678116153</v>
+        <v>0.00071978445876323</v>
       </c>
       <c r="T16">
-        <v>0.02672393458397521</v>
+        <v>0.000998930454778579</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.252014</v>
+        <v>8.050380000000001</v>
       </c>
       <c r="H17">
-        <v>12.504028</v>
+        <v>16.10076</v>
       </c>
       <c r="I17">
-        <v>0.7576118033845048</v>
+        <v>0.7962261912819557</v>
       </c>
       <c r="J17">
-        <v>0.695172647219185</v>
+        <v>0.7759828358771115</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.436643</v>
+        <v>33.9503155</v>
       </c>
       <c r="N17">
-        <v>36.873286</v>
+        <v>67.900631</v>
       </c>
       <c r="O17">
-        <v>0.6428080070062561</v>
+        <v>0.7271177682893459</v>
       </c>
       <c r="P17">
-        <v>0.5565310860718086</v>
+        <v>0.6902884886009675</v>
       </c>
       <c r="Q17">
-        <v>115.266150149002</v>
+        <v>273.3129408948901</v>
       </c>
       <c r="R17">
-        <v>461.064600596008</v>
+        <v>1093.25176357956</v>
       </c>
       <c r="S17">
-        <v>0.4869989334180091</v>
+        <v>0.5789502112584615</v>
       </c>
       <c r="T17">
-        <v>0.3868851883643073</v>
+        <v>0.5356520189579039</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.252014</v>
+        <v>8.050380000000001</v>
       </c>
       <c r="H18">
-        <v>12.504028</v>
+        <v>16.10076</v>
       </c>
       <c r="I18">
-        <v>0.7576118033845048</v>
+        <v>0.7962261912819557</v>
       </c>
       <c r="J18">
-        <v>0.695172647219185</v>
+        <v>0.7759828358771115</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>3.954666333333333</v>
+        <v>0.106203</v>
       </c>
       <c r="N18">
-        <v>11.863999</v>
+        <v>0.318609</v>
       </c>
       <c r="O18">
-        <v>0.1378825409867045</v>
+        <v>0.00227456172964382</v>
       </c>
       <c r="P18">
-        <v>0.1790641671757936</v>
+        <v>0.003239029178751897</v>
       </c>
       <c r="Q18">
-        <v>24.72462928132867</v>
+        <v>0.85497450714</v>
       </c>
       <c r="R18">
-        <v>148.347775687972</v>
+        <v>5.12984704284</v>
       </c>
       <c r="S18">
-        <v>0.1044614405321751</v>
+        <v>0.001811065622829997</v>
       </c>
       <c r="T18">
-        <v>0.1244805111176952</v>
+        <v>0.002513431047616609</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,10 +1582,10 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.252014</v>
+        <v>8.050380000000001</v>
       </c>
       <c r="H19">
-        <v>12.504028</v>
+        <v>16.10076</v>
       </c>
       <c r="I19">
-        <v>0.7576118033845048</v>
+        <v>0.7962261912819557</v>
       </c>
       <c r="J19">
-        <v>0.695172647219185</v>
+        <v>0.7759828358771115</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,400 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.3081146666666667</v>
+        <v>1.052948</v>
       </c>
       <c r="N19">
-        <v>0.9243440000000001</v>
+        <v>3.158844</v>
       </c>
       <c r="O19">
-        <v>0.01074265932303386</v>
+        <v>0.02255110706952724</v>
       </c>
       <c r="P19">
-        <v>0.01395118867963001</v>
+        <v>0.03211330466849762</v>
       </c>
       <c r="Q19">
-        <v>1.926337209605334</v>
+        <v>8.47663152024</v>
       </c>
       <c r="R19">
-        <v>11.558023257632</v>
+        <v>50.85978912144</v>
       </c>
       <c r="S19">
-        <v>0.008138765502869046</v>
+        <v>0.01795578209116126</v>
       </c>
       <c r="T19">
-        <v>0.009698484766272723</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0.9548856666666667</v>
-      </c>
-      <c r="H20">
-        <v>2.864657</v>
-      </c>
-      <c r="I20">
-        <v>0.1157119372972211</v>
-      </c>
-      <c r="J20">
-        <v>0.1592631742399304</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1.352028</v>
-      </c>
-      <c r="N20">
-        <v>2.704056</v>
-      </c>
-      <c r="O20">
-        <v>0.04713951580538032</v>
-      </c>
-      <c r="P20">
-        <v>0.04081250644379757</v>
-      </c>
-      <c r="Q20">
-        <v>1.291032158132</v>
-      </c>
-      <c r="R20">
-        <v>7.746192948792002</v>
-      </c>
-      <c r="S20">
-        <v>0.005454604697093532</v>
-      </c>
-      <c r="T20">
-        <v>0.006499929324926816</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.9548856666666667</v>
-      </c>
-      <c r="H21">
-        <v>2.864657</v>
-      </c>
-      <c r="I21">
-        <v>0.1157119372972211</v>
-      </c>
-      <c r="J21">
-        <v>0.1592631742399304</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>3.780960333333333</v>
-      </c>
-      <c r="N21">
-        <v>11.342881</v>
-      </c>
-      <c r="O21">
-        <v>0.1318261451631791</v>
-      </c>
-      <c r="P21">
-        <v>0.1711988967328076</v>
-      </c>
-      <c r="Q21">
-        <v>3.610384828535222</v>
-      </c>
-      <c r="R21">
-        <v>32.493463456817</v>
-      </c>
-      <c r="S21">
-        <v>0.01525385864325615</v>
-      </c>
-      <c r="T21">
-        <v>0.027265679720041</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0.9548856666666667</v>
-      </c>
-      <c r="H22">
-        <v>2.864657</v>
-      </c>
-      <c r="I22">
-        <v>0.1157119372972211</v>
-      </c>
-      <c r="J22">
-        <v>0.1592631742399304</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0.8490023333333333</v>
-      </c>
-      <c r="N22">
-        <v>2.547007</v>
-      </c>
-      <c r="O22">
-        <v>0.0296011317154463</v>
-      </c>
-      <c r="P22">
-        <v>0.03844215489616246</v>
-      </c>
-      <c r="Q22">
-        <v>0.8107001590665556</v>
-      </c>
-      <c r="R22">
-        <v>7.296301431599</v>
-      </c>
-      <c r="S22">
-        <v>0.003425204296984506</v>
-      </c>
-      <c r="T22">
-        <v>0.006122419613385917</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0.9548856666666667</v>
-      </c>
-      <c r="H23">
-        <v>2.864657</v>
-      </c>
-      <c r="I23">
-        <v>0.1157119372972211</v>
-      </c>
-      <c r="J23">
-        <v>0.1592631742399304</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>18.436643</v>
-      </c>
-      <c r="N23">
-        <v>36.873286</v>
-      </c>
-      <c r="O23">
-        <v>0.6428080070062561</v>
-      </c>
-      <c r="P23">
-        <v>0.5565310860718086</v>
-      </c>
-      <c r="Q23">
-        <v>17.60488614215033</v>
-      </c>
-      <c r="R23">
-        <v>105.629316852902</v>
-      </c>
-      <c r="S23">
-        <v>0.07438055980085957</v>
-      </c>
-      <c r="T23">
-        <v>0.08863490733099218</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0.9548856666666667</v>
-      </c>
-      <c r="H24">
-        <v>2.864657</v>
-      </c>
-      <c r="I24">
-        <v>0.1157119372972211</v>
-      </c>
-      <c r="J24">
-        <v>0.1592631742399304</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>3.954666333333333</v>
-      </c>
-      <c r="N24">
-        <v>11.863999</v>
-      </c>
-      <c r="O24">
-        <v>0.1378825409867045</v>
-      </c>
-      <c r="P24">
-        <v>0.1790641671757936</v>
-      </c>
-      <c r="Q24">
-        <v>3.776254198149223</v>
-      </c>
-      <c r="R24">
-        <v>33.986287783343</v>
-      </c>
-      <c r="S24">
-        <v>0.01595465593703507</v>
-      </c>
-      <c r="T24">
-        <v>0.02851832765704646</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.9548856666666667</v>
-      </c>
-      <c r="H25">
-        <v>2.864657</v>
-      </c>
-      <c r="I25">
-        <v>0.1157119372972211</v>
-      </c>
-      <c r="J25">
-        <v>0.1592631742399304</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.3081146666666667</v>
-      </c>
-      <c r="N25">
-        <v>0.9243440000000001</v>
-      </c>
-      <c r="O25">
-        <v>0.01074265932303386</v>
-      </c>
-      <c r="P25">
-        <v>0.01395118867963001</v>
-      </c>
-      <c r="Q25">
-        <v>0.2942142788897779</v>
-      </c>
-      <c r="R25">
-        <v>2.647928510008001</v>
-      </c>
-      <c r="S25">
-        <v>0.001243053921992302</v>
-      </c>
-      <c r="T25">
-        <v>0.00222191059353806</v>
+        <v>0.02491937322604647</v>
       </c>
     </row>
   </sheetData>
